--- a/Documents/NurulQuran_Improvements_v1.xlsx
+++ b/Documents/NurulQuran_Improvements_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NurulQuran\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ayesha\NurulQuranRepo\Nur-ul-Quran\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="137">
   <si>
     <t>Homepage Header</t>
   </si>
@@ -32,9 +32,6 @@
     <t>https://nurulquran.com/</t>
   </si>
   <si>
-    <t>There is an empty space between Logo and Search. Need to add Tag line or Meaning like “Enlighten Your Lives with the Nurul of Al Quran”</t>
-  </si>
-  <si>
     <t xml:space="preserve">Screen </t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t xml:space="preserve">Personally , was trying to get some information was not able to reach . </t>
   </si>
   <si>
-    <t xml:space="preserve">Contact details .For Eg : India's Number tried but its unavailable .Decision  shloud be taken by Head of Nurul Quran for Contact number too be display or not </t>
-  </si>
-  <si>
     <t>HomePageFooter.png</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>VideoMenuBar.png</t>
   </si>
   <si>
-    <t>Search : It should be Suggestive serach</t>
-  </si>
-  <si>
     <t>SuggestiveSerach.png</t>
   </si>
   <si>
@@ -116,9 +107,6 @@
     <t>Content is fine . Suggestion is that appreance shloud be more attractive.</t>
   </si>
   <si>
-    <t>1) Page should be display in the main screen (Home Page )ie Web Page Body : ( Separate Page should not be display )</t>
-  </si>
-  <si>
     <t>https://nurulquran.com/about-instructor/</t>
   </si>
   <si>
@@ -167,12 +155,6 @@
     <t xml:space="preserve">Suggestion </t>
   </si>
   <si>
-    <t xml:space="preserve">All the course details has been given in the Picture . Its should be more Compact </t>
-  </si>
-  <si>
-    <t>Didn’t understand the conpect of showing all the on going course .1)Anybody can join the Course from between and can register for it 2) It should be displayed as Upcoming Course ,Ongoing Course and Completed as a sub Menu inside Course</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -194,9 +176,6 @@
     <t>https://nurulquran.com/events/month/?tribe-bar-date=2018-12&amp;tribe-bar-search=asds</t>
   </si>
   <si>
-    <t>Giving the input for serach event . If no event found for the combination of input giving while seraching the event, Than no table should be displayed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Code Issue </t>
   </si>
   <si>
@@ -221,9 +200,6 @@
     <t>Blogs</t>
   </si>
   <si>
-    <t>Display of the blogs is confusing . It should have proper spacing between the blogs.And for example Surah Hud notes . Below it image text is present</t>
-  </si>
-  <si>
     <t>ConfusingwithblogDisplay.PNG</t>
   </si>
   <si>
@@ -351,9 +327,6 @@
   </si>
   <si>
     <t>Ayesha Murshid Khan</t>
-  </si>
-  <si>
-    <t>To Analysis the website as per the Users View for any improvements</t>
   </si>
   <si>
     <t>Testimonial_CapitionMissing.PNG</t>
@@ -403,9 +376,6 @@
     <t>https://nurulquran.com/refer/</t>
   </si>
   <si>
-    <t xml:space="preserve">Only the content is display . Kindly we can put some Images </t>
-  </si>
-  <si>
     <t>Earn Rewards</t>
   </si>
   <si>
@@ -421,9 +391,6 @@
     <t>General Queries</t>
   </si>
   <si>
-    <t>Like Refer a Friends Tab . General Queries Tab looks Blank</t>
-  </si>
-  <si>
     <t>https://nurulquran.com/subscribe-us/</t>
   </si>
   <si>
@@ -431,13 +398,78 @@
   </si>
   <si>
     <t xml:space="preserve">Nothing displayed in Body of the Page </t>
+  </si>
+  <si>
+    <t>To Analyze the website as per the users view for any improvements</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There is an empty space between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logo and Search.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Need to add Tag line or Meaning like “Enlighten Your Lives with the Nurul of Al Quran”</t>
+    </r>
+  </si>
+  <si>
+    <t>Search : It should be Suggestive search. For instance google search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category </t>
+  </si>
+  <si>
+    <t>User Interface Changes</t>
+  </si>
+  <si>
+    <t>Why do we required two home bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact details .For Eg : Tried to contact on  India's Contact Number  but was unavailable .Decision  shloud be taken by Head of Nurul Quran for Contact number to be display or not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Page should be displayed in the main screen (Home Page )ie Web Page Body : ( Separate Page should not be display ) for Video </t>
+  </si>
+  <si>
+    <t>All the course details have been given in the Picture format . Their should be PDF download opition  for the course</t>
+  </si>
+  <si>
+    <t>Didn’t understand the concept  of showing all the on going course .1)Anybody can join the Course from between and can register for it 2) It should be displayed as Upcoming Course ,Ongoing Course and Completed as a sub Menu inside Course</t>
+  </si>
+  <si>
+    <t>Giving the input for serach event . If no event found for the combination of input giving while searching the event, Than no table should be displayed</t>
+  </si>
+  <si>
+    <t>Display of the blogs are confusing . It should have proper spacing between the blogs ,For example Surah Hud notes . Below it image text is present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only the content is displayed . Can put some Images? </t>
+  </si>
+  <si>
+    <t>Like Refer a Friends Tab . Their should be more information on General Queries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +513,14 @@
       <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -828,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,31 +888,31 @@
   <sheetData>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11">
         <v>43447</v>
@@ -880,45 +920,47 @@
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -926,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
@@ -935,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -952,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>0</v>
@@ -961,16 +1003,19 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -978,7 +1023,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>0</v>
@@ -987,45 +1032,45 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1033,22 +1078,22 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1056,22 +1101,22 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1079,28 +1124,28 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1108,22 +1153,22 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1131,22 +1176,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
@@ -1154,25 +1199,25 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1180,25 +1225,25 @@
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -1206,25 +1251,25 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1232,25 +1277,25 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -1258,25 +1303,25 @@
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1284,22 +1329,22 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1307,28 +1352,28 @@
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1336,25 +1381,25 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1362,22 +1407,22 @@
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1385,25 +1430,25 @@
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -1411,25 +1456,25 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1437,25 +1482,25 @@
         <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1463,25 +1508,25 @@
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1489,22 +1534,22 @@
         <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1512,25 +1557,25 @@
         <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1538,25 +1583,25 @@
         <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1564,22 +1609,22 @@
         <v>26</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1587,22 +1632,22 @@
         <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1610,22 +1655,22 @@
         <v>28</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1633,22 +1678,22 @@
         <v>29</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1656,25 +1701,25 @@
         <v>30</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -1682,25 +1727,25 @@
         <v>31</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1708,22 +1753,22 @@
         <v>32</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1731,45 +1776,45 @@
         <v>33</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>34</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1777,16 +1822,22 @@
         <v>35</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
